--- a/Entwurfsphase/Rollen und Rechtevergabe.xlsx
+++ b/Entwurfsphase/Rollen und Rechtevergabe.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13770" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Berechtigungen</t>
   </si>
@@ -43,12 +44,6 @@
   </si>
   <si>
     <t>Lesen alle Bereiche Jahr</t>
-  </si>
-  <si>
-    <t>Lesen eigener Bereich KW</t>
-  </si>
-  <si>
-    <t>Lesen eigener Bereich Jahr</t>
   </si>
   <si>
     <t>Lesen alle Arbeitsgruppen KW</t>
@@ -187,6 +182,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -234,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -587,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -617,15 +615,17 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="1"/>
@@ -650,15 +650,17 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="1"/>
@@ -683,17 +685,15 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="1"/>
@@ -718,17 +718,15 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="1"/>
@@ -753,16 +751,16 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -786,16 +784,16 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -819,17 +817,25 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -852,16 +858,16 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -885,25 +891,17 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -926,13 +924,13 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -959,13 +957,13 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -992,13 +990,13 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1025,13 +1023,13 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1058,13 +1056,13 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1091,13 +1089,13 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1124,13 +1122,13 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1157,17 +1155,19 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1190,17 +1190,25 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1223,18 +1231,24 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1258,25 +1272,13 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="24" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1299,25 +1301,15 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>30</v>
+    <row r="25" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1340,13 +1332,25 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+    <row r="26" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1369,15 +1373,25 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1400,25 +1414,12 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1441,25 +1442,12 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1482,7 +1470,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1510,7 +1498,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1538,7 +1526,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1566,7 +1554,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1594,7 +1582,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1622,7 +1610,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1650,7 +1638,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1678,7 +1666,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1706,7 +1694,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1734,7 +1722,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1762,7 +1750,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1790,7 +1778,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1818,7 +1806,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1846,7 +1834,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1874,7 +1862,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1902,7 +1890,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1930,7 +1918,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1958,7 +1946,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1986,7 +1974,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2014,7 +2002,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2042,7 +2030,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2070,7 +2058,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2098,7 +2086,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2126,7 +2114,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2154,7 +2142,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2182,7 +2170,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2210,7 +2198,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2238,7 +2226,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2266,7 +2254,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2294,7 +2282,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2322,7 +2310,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2350,7 +2338,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2378,7 +2366,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2406,7 +2394,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2434,7 +2422,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2462,7 +2450,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2490,7 +2478,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2518,7 +2506,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2546,7 +2534,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2574,7 +2562,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2602,7 +2590,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2630,7 +2618,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2658,7 +2646,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2686,7 +2674,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2714,7 +2702,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2742,7 +2730,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2770,7 +2758,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2798,7 +2786,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2826,7 +2814,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2854,7 +2842,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2882,7 +2870,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2910,7 +2898,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2938,7 +2926,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2966,7 +2954,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2994,7 +2982,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3022,7 +3010,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3050,7 +3038,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3078,7 +3066,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3106,7 +3094,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3134,7 +3122,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3162,7 +3150,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3190,7 +3178,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3218,7 +3206,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3246,7 +3234,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3274,7 +3262,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3302,7 +3290,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3330,7 +3318,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3358,7 +3346,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3386,7 +3374,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3414,7 +3402,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3442,7 +3430,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3470,7 +3458,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3498,7 +3486,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3526,7 +3514,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3554,7 +3542,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3582,7 +3570,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3610,7 +3598,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3638,7 +3626,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3666,7 +3654,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3694,7 +3682,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3722,7 +3710,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3750,7 +3738,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3778,7 +3766,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3806,7 +3794,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3834,7 +3822,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3862,7 +3850,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3890,7 +3878,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3918,7 +3906,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3946,7 +3934,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3974,7 +3962,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4002,7 +3990,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4030,7 +4018,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4058,7 +4046,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4086,7 +4074,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4114,7 +4102,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4142,7 +4130,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4170,7 +4158,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4198,7 +4186,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4226,7 +4214,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4254,7 +4242,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4282,7 +4270,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4310,7 +4298,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4338,7 +4326,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4366,7 +4354,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4394,7 +4382,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4422,7 +4410,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4450,7 +4438,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4478,7 +4466,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4506,7 +4494,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4534,7 +4522,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4562,7 +4550,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4590,7 +4578,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4618,7 +4606,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4646,7 +4634,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4674,7 +4662,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4702,7 +4690,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4730,7 +4718,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4758,7 +4746,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4786,7 +4774,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4814,7 +4802,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4842,7 +4830,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4870,7 +4858,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4898,7 +4886,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4926,7 +4914,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4954,7 +4942,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4982,7 +4970,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5010,7 +4998,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5038,7 +5026,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5066,7 +5054,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5094,7 +5082,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5122,7 +5110,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5150,7 +5138,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5178,7 +5166,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5206,7 +5194,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5234,7 +5222,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5262,7 +5250,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5290,7 +5278,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5318,7 +5306,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5346,7 +5334,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5374,7 +5362,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5402,7 +5390,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5430,7 +5418,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5458,7 +5446,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5486,7 +5474,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5514,7 +5502,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5542,7 +5530,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5570,7 +5558,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5598,7 +5586,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -5626,7 +5614,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -5654,7 +5642,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -5682,7 +5670,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5710,7 +5698,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5738,7 +5726,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5766,7 +5754,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5794,7 +5782,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5822,7 +5810,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5850,7 +5838,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5878,7 +5866,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5906,7 +5894,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5934,7 +5922,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5962,7 +5950,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5990,7 +5978,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6018,7 +6006,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6046,7 +6034,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6074,7 +6062,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6102,7 +6090,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6130,7 +6118,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6158,7 +6146,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6186,7 +6174,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6214,7 +6202,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -6242,7 +6230,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6270,7 +6258,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6298,7 +6286,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -6326,7 +6314,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -6354,7 +6342,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -6382,7 +6370,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6410,7 +6398,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6438,7 +6426,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6466,7 +6454,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6494,7 +6482,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6522,7 +6510,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6550,7 +6538,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6578,7 +6566,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6606,7 +6594,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6634,7 +6622,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -6662,7 +6650,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -6690,7 +6678,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -6718,7 +6706,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -6746,7 +6734,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -6774,7 +6762,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -6802,7 +6790,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -6830,7 +6818,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -6858,7 +6846,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -6886,7 +6874,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -6914,7 +6902,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -6942,7 +6930,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -6970,7 +6958,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -6998,7 +6986,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -7026,7 +7014,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -7054,7 +7042,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -7082,7 +7070,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -7110,7 +7098,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -7138,7 +7126,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -7166,7 +7154,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -7194,7 +7182,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -7222,7 +7210,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -7250,7 +7238,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -7278,7 +7266,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -7306,7 +7294,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -7334,7 +7322,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -7362,7 +7350,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -7390,7 +7378,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -7418,7 +7406,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -7446,7 +7434,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -7474,7 +7462,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -7502,7 +7490,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -7530,7 +7518,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -7558,7 +7546,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -7586,7 +7574,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -7614,7 +7602,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -7642,7 +7630,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -7670,7 +7658,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -7698,7 +7686,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -7726,7 +7714,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -7754,7 +7742,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -7782,7 +7770,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -7810,7 +7798,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -7838,7 +7826,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -7866,7 +7854,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -7894,7 +7882,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -7922,7 +7910,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -7950,7 +7938,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -7978,7 +7966,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -8006,7 +7994,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -8034,7 +8022,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -8062,7 +8050,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -8090,7 +8078,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -8118,7 +8106,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -8146,7 +8134,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -8174,7 +8162,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -8202,7 +8190,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -8230,7 +8218,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -8258,7 +8246,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -8286,7 +8274,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -8314,7 +8302,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -8342,7 +8330,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -8370,7 +8358,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -8398,7 +8386,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -8426,7 +8414,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -8454,7 +8442,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -8482,7 +8470,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -8510,7 +8498,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -8538,7 +8526,7 @@
       <c r="Z281" s="1"/>
       <c r="AA281" s="1"/>
     </row>
-    <row r="282" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -8566,7 +8554,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -8594,7 +8582,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -8622,7 +8610,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -8650,7 +8638,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -8678,7 +8666,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -8706,7 +8694,7 @@
       <c r="Z287" s="1"/>
       <c r="AA287" s="1"/>
     </row>
-    <row r="288" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -8734,7 +8722,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -8762,7 +8750,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -8790,7 +8778,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -8818,7 +8806,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -8846,7 +8834,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -8874,7 +8862,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -8902,7 +8890,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -8930,7 +8918,7 @@
       <c r="Z295" s="1"/>
       <c r="AA295" s="1"/>
     </row>
-    <row r="296" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -8958,7 +8946,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -8986,7 +8974,7 @@
       <c r="Z297" s="1"/>
       <c r="AA297" s="1"/>
     </row>
-    <row r="298" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -9014,7 +9002,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -9042,7 +9030,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -9070,7 +9058,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -9098,7 +9086,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -9126,7 +9114,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -9154,7 +9142,7 @@
       <c r="Z303" s="1"/>
       <c r="AA303" s="1"/>
     </row>
-    <row r="304" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -9182,7 +9170,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -9210,7 +9198,7 @@
       <c r="Z305" s="1"/>
       <c r="AA305" s="1"/>
     </row>
-    <row r="306" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -9238,7 +9226,7 @@
       <c r="Z306" s="1"/>
       <c r="AA306" s="1"/>
     </row>
-    <row r="307" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -9266,7 +9254,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -9294,7 +9282,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -9322,7 +9310,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -9350,7 +9338,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -9378,7 +9366,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -9406,7 +9394,7 @@
       <c r="Z312" s="1"/>
       <c r="AA312" s="1"/>
     </row>
-    <row r="313" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -9434,7 +9422,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -9462,7 +9450,7 @@
       <c r="Z314" s="1"/>
       <c r="AA314" s="1"/>
     </row>
-    <row r="315" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -9490,7 +9478,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -9518,7 +9506,7 @@
       <c r="Z316" s="1"/>
       <c r="AA316" s="1"/>
     </row>
-    <row r="317" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -9546,7 +9534,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -9574,7 +9562,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -9602,7 +9590,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -9630,7 +9618,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -9658,7 +9646,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -9686,7 +9674,7 @@
       <c r="Z322" s="1"/>
       <c r="AA322" s="1"/>
     </row>
-    <row r="323" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -9714,7 +9702,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -9742,7 +9730,7 @@
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
     </row>
-    <row r="325" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -9770,7 +9758,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -9798,7 +9786,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -9826,7 +9814,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -9854,7 +9842,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -9882,7 +9870,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -9910,7 +9898,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -9938,7 +9926,7 @@
       <c r="Z331" s="1"/>
       <c r="AA331" s="1"/>
     </row>
-    <row r="332" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -9966,7 +9954,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -9994,7 +9982,7 @@
       <c r="Z333" s="1"/>
       <c r="AA333" s="1"/>
     </row>
-    <row r="334" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -10022,7 +10010,7 @@
       <c r="Z334" s="1"/>
       <c r="AA334" s="1"/>
     </row>
-    <row r="335" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -10050,7 +10038,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -10078,7 +10066,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -10106,7 +10094,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -10134,7 +10122,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -10162,7 +10150,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -10190,7 +10178,7 @@
       <c r="Z340" s="1"/>
       <c r="AA340" s="1"/>
     </row>
-    <row r="341" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -10218,7 +10206,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -10246,7 +10234,7 @@
       <c r="Z342" s="1"/>
       <c r="AA342" s="1"/>
     </row>
-    <row r="343" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -10274,7 +10262,7 @@
       <c r="Z343" s="1"/>
       <c r="AA343" s="1"/>
     </row>
-    <row r="344" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -10302,7 +10290,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -10330,7 +10318,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -10358,7 +10346,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -10386,7 +10374,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -10414,7 +10402,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -10442,7 +10430,7 @@
       <c r="Z349" s="1"/>
       <c r="AA349" s="1"/>
     </row>
-    <row r="350" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -10470,7 +10458,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -10498,7 +10486,7 @@
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
     </row>
-    <row r="352" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -10526,7 +10514,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -10554,7 +10542,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -10582,7 +10570,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -10610,7 +10598,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -10638,7 +10626,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -10666,7 +10654,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -10694,7 +10682,7 @@
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
     </row>
-    <row r="359" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -10722,7 +10710,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -10750,7 +10738,7 @@
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
     </row>
-    <row r="361" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -10778,7 +10766,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -10806,7 +10794,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -10834,7 +10822,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -10862,7 +10850,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -10890,7 +10878,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -10918,7 +10906,7 @@
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
     </row>
-    <row r="367" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -10946,7 +10934,7 @@
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
     </row>
-    <row r="368" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -10974,7 +10962,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -11002,7 +10990,7 @@
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
     </row>
-    <row r="370" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -11030,7 +11018,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -11058,7 +11046,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -11086,7 +11074,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -11114,7 +11102,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -11142,7 +11130,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -11170,7 +11158,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -11198,7 +11186,7 @@
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
     </row>
-    <row r="377" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -11226,7 +11214,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -11254,7 +11242,7 @@
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
     </row>
-    <row r="379" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -11282,7 +11270,7 @@
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
     </row>
-    <row r="380" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -11310,7 +11298,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -11338,7 +11326,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -11366,7 +11354,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -11394,7 +11382,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -11422,7 +11410,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -11450,7 +11438,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -11478,7 +11466,7 @@
       <c r="Z386" s="1"/>
       <c r="AA386" s="1"/>
     </row>
-    <row r="387" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -11506,7 +11494,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -11534,7 +11522,7 @@
       <c r="Z388" s="1"/>
       <c r="AA388" s="1"/>
     </row>
-    <row r="389" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -11562,7 +11550,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -11590,7 +11578,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -11618,7 +11606,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -11646,7 +11634,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -11674,7 +11662,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -11702,7 +11690,7 @@
       <c r="Z394" s="1"/>
       <c r="AA394" s="1"/>
     </row>
-    <row r="395" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -11730,7 +11718,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -11758,7 +11746,7 @@
       <c r="Z396" s="1"/>
       <c r="AA396" s="1"/>
     </row>
-    <row r="397" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -11786,7 +11774,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -11814,7 +11802,7 @@
       <c r="Z398" s="1"/>
       <c r="AA398" s="1"/>
     </row>
-    <row r="399" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -11842,7 +11830,7 @@
       <c r="Z399" s="1"/>
       <c r="AA399" s="1"/>
     </row>
-    <row r="400" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -11870,7 +11858,7 @@
       <c r="Z400" s="1"/>
       <c r="AA400" s="1"/>
     </row>
-    <row r="401" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -11898,7 +11886,7 @@
       <c r="Z401" s="1"/>
       <c r="AA401" s="1"/>
     </row>
-    <row r="402" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -11926,7 +11914,7 @@
       <c r="Z402" s="1"/>
       <c r="AA402" s="1"/>
     </row>
-    <row r="403" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -11954,7 +11942,7 @@
       <c r="Z403" s="1"/>
       <c r="AA403" s="1"/>
     </row>
-    <row r="404" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -11982,7 +11970,7 @@
       <c r="Z404" s="1"/>
       <c r="AA404" s="1"/>
     </row>
-    <row r="405" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -12010,7 +11998,7 @@
       <c r="Z405" s="1"/>
       <c r="AA405" s="1"/>
     </row>
-    <row r="406" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -12038,7 +12026,7 @@
       <c r="Z406" s="1"/>
       <c r="AA406" s="1"/>
     </row>
-    <row r="407" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -12066,7 +12054,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -12094,7 +12082,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -12122,7 +12110,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -12150,7 +12138,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -12178,7 +12166,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -12206,7 +12194,7 @@
       <c r="Z412" s="1"/>
       <c r="AA412" s="1"/>
     </row>
-    <row r="413" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -12234,7 +12222,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -12262,7 +12250,7 @@
       <c r="Z414" s="1"/>
       <c r="AA414" s="1"/>
     </row>
-    <row r="415" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -12290,7 +12278,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -12318,7 +12306,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -12346,7 +12334,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -12374,7 +12362,7 @@
       <c r="Z418" s="1"/>
       <c r="AA418" s="1"/>
     </row>
-    <row r="419" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -12402,7 +12390,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -12430,7 +12418,7 @@
       <c r="Z420" s="1"/>
       <c r="AA420" s="1"/>
     </row>
-    <row r="421" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -12458,7 +12446,7 @@
       <c r="Z421" s="1"/>
       <c r="AA421" s="1"/>
     </row>
-    <row r="422" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -12486,7 +12474,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -12514,7 +12502,7 @@
       <c r="Z423" s="1"/>
       <c r="AA423" s="1"/>
     </row>
-    <row r="424" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -12542,7 +12530,7 @@
       <c r="Z424" s="1"/>
       <c r="AA424" s="1"/>
     </row>
-    <row r="425" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -12570,7 +12558,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -12598,7 +12586,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -12626,7 +12614,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -12654,7 +12642,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -12682,7 +12670,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -12710,7 +12698,7 @@
       <c r="Z430" s="1"/>
       <c r="AA430" s="1"/>
     </row>
-    <row r="431" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -12738,7 +12726,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -12766,7 +12754,7 @@
       <c r="Z432" s="1"/>
       <c r="AA432" s="1"/>
     </row>
-    <row r="433" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -12794,7 +12782,7 @@
       <c r="Z433" s="1"/>
       <c r="AA433" s="1"/>
     </row>
-    <row r="434" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -12822,7 +12810,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -12850,7 +12838,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -12878,7 +12866,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -12906,7 +12894,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -12934,7 +12922,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -12962,7 +12950,7 @@
       <c r="Z439" s="1"/>
       <c r="AA439" s="1"/>
     </row>
-    <row r="440" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -12990,7 +12978,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -13018,7 +13006,7 @@
       <c r="Z441" s="1"/>
       <c r="AA441" s="1"/>
     </row>
-    <row r="442" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -13046,7 +13034,7 @@
       <c r="Z442" s="1"/>
       <c r="AA442" s="1"/>
     </row>
-    <row r="443" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -13074,7 +13062,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -13102,7 +13090,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -13130,7 +13118,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -13158,7 +13146,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -13186,7 +13174,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -13214,7 +13202,7 @@
       <c r="Z448" s="1"/>
       <c r="AA448" s="1"/>
     </row>
-    <row r="449" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -13242,7 +13230,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -13270,7 +13258,7 @@
       <c r="Z450" s="1"/>
       <c r="AA450" s="1"/>
     </row>
-    <row r="451" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -13298,7 +13286,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
@@ -13326,7 +13314,7 @@
       <c r="Z452" s="1"/>
       <c r="AA452" s="1"/>
     </row>
-    <row r="453" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
@@ -13354,7 +13342,7 @@
       <c r="Z453" s="1"/>
       <c r="AA453" s="1"/>
     </row>
-    <row r="454" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
@@ -13382,7 +13370,7 @@
       <c r="Z454" s="1"/>
       <c r="AA454" s="1"/>
     </row>
-    <row r="455" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
@@ -13410,7 +13398,7 @@
       <c r="Z455" s="1"/>
       <c r="AA455" s="1"/>
     </row>
-    <row r="456" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
@@ -13438,7 +13426,7 @@
       <c r="Z456" s="1"/>
       <c r="AA456" s="1"/>
     </row>
-    <row r="457" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
@@ -13466,7 +13454,7 @@
       <c r="Z457" s="1"/>
       <c r="AA457" s="1"/>
     </row>
-    <row r="458" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
@@ -13494,7 +13482,7 @@
       <c r="Z458" s="1"/>
       <c r="AA458" s="1"/>
     </row>
-    <row r="459" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
@@ -13522,7 +13510,7 @@
       <c r="Z459" s="1"/>
       <c r="AA459" s="1"/>
     </row>
-    <row r="460" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
@@ -13550,7 +13538,7 @@
       <c r="Z460" s="1"/>
       <c r="AA460" s="1"/>
     </row>
-    <row r="461" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
@@ -13578,7 +13566,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
@@ -13606,7 +13594,7 @@
       <c r="Z462" s="1"/>
       <c r="AA462" s="1"/>
     </row>
-    <row r="463" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
@@ -13634,7 +13622,7 @@
       <c r="Z463" s="1"/>
       <c r="AA463" s="1"/>
     </row>
-    <row r="464" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
@@ -13662,7 +13650,7 @@
       <c r="Z464" s="1"/>
       <c r="AA464" s="1"/>
     </row>
-    <row r="465" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
@@ -13690,7 +13678,7 @@
       <c r="Z465" s="1"/>
       <c r="AA465" s="1"/>
     </row>
-    <row r="466" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -13718,7 +13706,7 @@
       <c r="Z466" s="1"/>
       <c r="AA466" s="1"/>
     </row>
-    <row r="467" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -13746,7 +13734,7 @@
       <c r="Z467" s="1"/>
       <c r="AA467" s="1"/>
     </row>
-    <row r="468" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -13774,7 +13762,7 @@
       <c r="Z468" s="1"/>
       <c r="AA468" s="1"/>
     </row>
-    <row r="469" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -13802,7 +13790,7 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -13830,7 +13818,7 @@
       <c r="Z470" s="1"/>
       <c r="AA470" s="1"/>
     </row>
-    <row r="471" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -13858,7 +13846,7 @@
       <c r="Z471" s="1"/>
       <c r="AA471" s="1"/>
     </row>
-    <row r="472" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -13886,7 +13874,7 @@
       <c r="Z472" s="1"/>
       <c r="AA472" s="1"/>
     </row>
-    <row r="473" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -13914,7 +13902,7 @@
       <c r="Z473" s="1"/>
       <c r="AA473" s="1"/>
     </row>
-    <row r="474" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -13942,7 +13930,7 @@
       <c r="Z474" s="1"/>
       <c r="AA474" s="1"/>
     </row>
-    <row r="475" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -13970,7 +13958,7 @@
       <c r="Z475" s="1"/>
       <c r="AA475" s="1"/>
     </row>
-    <row r="476" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -13998,7 +13986,7 @@
       <c r="Z476" s="1"/>
       <c r="AA476" s="1"/>
     </row>
-    <row r="477" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
@@ -14026,7 +14014,7 @@
       <c r="Z477" s="1"/>
       <c r="AA477" s="1"/>
     </row>
-    <row r="478" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
@@ -14054,62 +14042,8 @@
       <c r="Z478" s="1"/>
       <c r="AA478" s="1"/>
     </row>
-    <row r="479" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B479" s="1"/>
-      <c r="C479" s="1"/>
-      <c r="D479" s="1"/>
-      <c r="E479" s="1"/>
-      <c r="F479" s="1"/>
-      <c r="G479" s="1"/>
-      <c r="H479" s="1"/>
-      <c r="I479" s="1"/>
-      <c r="J479" s="1"/>
-      <c r="K479" s="1"/>
-      <c r="L479" s="1"/>
-      <c r="M479" s="1"/>
-      <c r="N479" s="1"/>
-      <c r="O479" s="1"/>
-      <c r="P479" s="1"/>
-      <c r="Q479" s="1"/>
-      <c r="R479" s="1"/>
-      <c r="S479" s="1"/>
-      <c r="T479" s="1"/>
-      <c r="U479" s="1"/>
-      <c r="V479" s="1"/>
-      <c r="W479" s="1"/>
-      <c r="X479" s="1"/>
-      <c r="Y479" s="1"/>
-      <c r="Z479" s="1"/>
-      <c r="AA479" s="1"/>
-    </row>
-    <row r="480" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B480" s="1"/>
-      <c r="C480" s="1"/>
-      <c r="D480" s="1"/>
-      <c r="E480" s="1"/>
-      <c r="F480" s="1"/>
-      <c r="G480" s="1"/>
-      <c r="H480" s="1"/>
-      <c r="I480" s="1"/>
-      <c r="J480" s="1"/>
-      <c r="K480" s="1"/>
-      <c r="L480" s="1"/>
-      <c r="M480" s="1"/>
-      <c r="N480" s="1"/>
-      <c r="O480" s="1"/>
-      <c r="P480" s="1"/>
-      <c r="Q480" s="1"/>
-      <c r="R480" s="1"/>
-      <c r="S480" s="1"/>
-      <c r="T480" s="1"/>
-      <c r="U480" s="1"/>
-      <c r="V480" s="1"/>
-      <c r="W480" s="1"/>
-      <c r="X480" s="1"/>
-      <c r="Y480" s="1"/>
-      <c r="Z480" s="1"/>
-      <c r="AA480" s="1"/>
-    </row>
+    <row r="479" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
